--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sonata_03_04_2024\Solver_Minds\Solver_Minds\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>Sno</t>
   </si>
@@ -54,119 +59,167 @@
     <t>Scenario1</t>
   </si>
   <si>
+    <t>https://sonata.solverminds.net/</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>SemiuAutoRun2</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Scenario2</t>
+  </si>
+  <si>
+    <t>Test_case1</t>
+  </si>
+  <si>
+    <t>Test_case2</t>
+  </si>
+  <si>
+    <t>Test_case3</t>
+  </si>
+  <si>
+    <t>Test_case4</t>
+  </si>
+  <si>
+    <t>SemiuAutoRun3</t>
+  </si>
+  <si>
+    <t>SemiuAutoRun4</t>
+  </si>
+  <si>
+    <t>Scenario3</t>
+  </si>
+  <si>
+    <t>Scenario4</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Test_case5</t>
+  </si>
+  <si>
+    <t>SemiuAutoRun5</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Scenario5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Test_case6</t>
+  </si>
+  <si>
+    <t>SemiuAutoRun6</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Scenario6</t>
+  </si>
+  <si>
+    <t>Scenario7</t>
+  </si>
+  <si>
+    <t>Scenario8</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>SemiuAutoRun7</t>
+  </si>
+  <si>
+    <t>SemiuAutoRun8</t>
+  </si>
+  <si>
+    <t>Test_case7</t>
+  </si>
+  <si>
+    <t>Test_case8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Test_case9</t>
+  </si>
+  <si>
+    <t>SemiuAutoRun9</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Scenario9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Test_case10</t>
+  </si>
+  <si>
+    <t>SemiuAutoRun10</t>
+  </si>
+  <si>
+    <t>Scenario10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Test_case11</t>
+  </si>
+  <si>
+    <t>SemiuAutoRun11</t>
+  </si>
+  <si>
+    <t>Scenario11</t>
+  </si>
+  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>https://sonata.solverminds.net/</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>SemiuAutoRun2</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Scenario2</t>
-  </si>
-  <si>
-    <t>Test_case1</t>
-  </si>
-  <si>
-    <t>Test_case2</t>
-  </si>
-  <si>
-    <t>Test_case3</t>
-  </si>
-  <si>
-    <t>Test_case4</t>
-  </si>
-  <si>
-    <t>SemiuAutoRun3</t>
-  </si>
-  <si>
-    <t>SemiuAutoRun4</t>
-  </si>
-  <si>
-    <t>Scenario3</t>
-  </si>
-  <si>
-    <t>Scenario4</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Vessel</t>
-  </si>
-  <si>
-    <t>A70 - ALX B170</t>
-  </si>
-  <si>
-    <t>TEM - TEMPANOS</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>TIR - TIRUA</t>
-  </si>
-  <si>
-    <t>CJV - CMA CGM JULES VERNE</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Test_case5</t>
-  </si>
-  <si>
-    <t>SemiuAutoRun5</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Scenario5</t>
-  </si>
-  <si>
-    <t>EXA - EXPRESS ATHENS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Test_case6</t>
-  </si>
-  <si>
-    <t>SemiuAutoRun6</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Scenario6</t>
-  </si>
-  <si>
-    <t>DEL - DELAWARE EXPRESS</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,7 +379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -378,7 +431,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -572,32 +625,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,16 +672,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -640,152 +690,246 @@
         <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="F8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="F9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12">
       <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
-      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -795,8 +939,12 @@
     <hyperlink ref="G5" r:id="rId4"/>
     <hyperlink ref="G6" r:id="rId5"/>
     <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G8:G9" r:id="rId7" display="https://sonata.solverminds.net/"/>
+    <hyperlink ref="G10" r:id="rId8"/>
+    <hyperlink ref="G11" r:id="rId9"/>
+    <hyperlink ref="G12" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>